--- a/outputs/Lib_2.xlsx
+++ b/outputs/Lib_2.xlsx
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -660,13 +660,13 @@
         <v>7913</v>
       </c>
       <c r="D3">
-        <v>7912.999999999999</v>
+        <v>7913</v>
       </c>
       <c r="E3">
-        <v>9.094947017729282E-13</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>533</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -726,7 +726,7 @@
         <v>1.818989403545856E-12</v>
       </c>
       <c r="F6">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -746,7 +746,7 @@
         <v>9.094947017729282E-13</v>
       </c>
       <c r="F7">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -760,13 +760,13 @@
         <v>9488</v>
       </c>
       <c r="D8">
-        <v>9488</v>
+        <v>9487.999999999998</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="F8">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>703</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -826,7 +826,7 @@
         <v>9.094947017729282E-13</v>
       </c>
       <c r="F11">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -880,13 +880,13 @@
         <v>8252</v>
       </c>
       <c r="D14">
-        <v>8252.000000000002</v>
+        <v>8251.999999999998</v>
       </c>
       <c r="E14">
         <v>1.818989403545856E-12</v>
       </c>
       <c r="F14">
-        <v>344</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>156</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -943,10 +943,10 @@
         <v>10408</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="F17">
-        <v>576</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -980,13 +980,13 @@
         <v>7125</v>
       </c>
       <c r="D19">
-        <v>7125</v>
+        <v>7124.999999999999</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>9.094947017729282E-13</v>
       </c>
       <c r="F19">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1000,13 +1000,13 @@
         <v>8886</v>
       </c>
       <c r="D20">
-        <v>8886.000000000076</v>
+        <v>8885.999999999993</v>
       </c>
       <c r="E20">
-        <v>7.639755494892597E-11</v>
+        <v>7.275957614183426E-12</v>
       </c>
       <c r="F20">
-        <v>566</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1026,7 +1026,7 @@
         <v>1.818989403545856E-12</v>
       </c>
       <c r="F21">
-        <v>1035</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>242</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1080,13 +1080,13 @@
         <v>8746</v>
       </c>
       <c r="D24">
-        <v>8745.999999999998</v>
+        <v>8746</v>
       </c>
       <c r="E24">
-        <v>1.818989403545856E-12</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>305</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1103,10 +1103,10 @@
         <v>10273</v>
       </c>
       <c r="E25">
-        <v>1.818989403545856E-12</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1036</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4694</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3047</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1160,13 +1160,13 @@
         <v>12322</v>
       </c>
       <c r="D28">
-        <v>12373</v>
+        <v>12322</v>
       </c>
       <c r="E28">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>4877</v>
+        <v>13082</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1180,13 +1180,13 @@
         <v>13722</v>
       </c>
       <c r="D29">
-        <v>13978</v>
+        <v>13722</v>
       </c>
       <c r="E29">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>4904</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1200,13 +1200,13 @@
         <v>12371</v>
       </c>
       <c r="D30">
-        <v>12654</v>
+        <v>12371</v>
       </c>
       <c r="E30">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>4942</v>
+        <v>16619</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1220,13 +1220,13 @@
         <v>11331</v>
       </c>
       <c r="D31">
-        <v>11598</v>
+        <v>11331</v>
       </c>
       <c r="E31">
-        <v>267</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="F31">
-        <v>4949</v>
+        <v>33944</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1240,13 +1240,13 @@
         <v>13331</v>
       </c>
       <c r="D32">
-        <v>13998</v>
+        <v>13331</v>
       </c>
       <c r="E32">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>4930</v>
+        <v>52446</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1260,13 +1260,13 @@
         <v>15331</v>
       </c>
       <c r="D33">
-        <v>16398</v>
+        <v>15331</v>
       </c>
       <c r="E33">
-        <v>1067</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>4961</v>
+        <v>39277</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>3415</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1773</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2388</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>4109</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>11258</v>
       </c>
       <c r="E38">
-        <v>1.818989403545856E-12</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1475</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1133</v>
+        <v>893</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>11824</v>
       </c>
       <c r="E40">
-        <v>1.818989403545856E-12</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1542</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>2116</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1475</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>3303</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>591</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>431</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>556</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1540,13 +1540,13 @@
         <v>5651</v>
       </c>
       <c r="D47">
-        <v>5651</v>
+        <v>5650.999999999999</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>9.094947017729282E-13</v>
       </c>
       <c r="F47">
-        <v>1133</v>
+        <v>815</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>359</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>9.094947017729282E-13</v>
       </c>
       <c r="F50">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1620,13 +1620,13 @@
         <v>8741</v>
       </c>
       <c r="D51">
-        <v>8833</v>
+        <v>8741</v>
       </c>
       <c r="E51">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>4802</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1640,13 +1640,13 @@
         <v>7414</v>
       </c>
       <c r="D52">
-        <v>7458</v>
+        <v>7414</v>
       </c>
       <c r="E52">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>4973</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1660,13 +1660,13 @@
         <v>9178</v>
       </c>
       <c r="D53">
-        <v>9178</v>
+        <v>9178.000000000002</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="F53">
-        <v>493</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>308</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1720,13 +1720,13 @@
         <v>7654</v>
       </c>
       <c r="D56">
-        <v>7654</v>
+        <v>7654.000000000001</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>9.094947017729282E-13</v>
       </c>
       <c r="F56">
-        <v>916</v>
+        <v>816</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1740,13 +1740,13 @@
         <v>21103</v>
       </c>
       <c r="D57">
-        <v>21176</v>
+        <v>21103</v>
       </c>
       <c r="E57">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>4962</v>
+        <v>12071</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1760,13 +1760,13 @@
         <v>26039</v>
       </c>
       <c r="D58">
-        <v>30010.00000000001</v>
+        <v>26039</v>
       </c>
       <c r="E58">
-        <v>3971.000000000007</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>4946</v>
+        <v>72795</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1780,13 +1780,13 @@
         <v>37239</v>
       </c>
       <c r="D59">
-        <v>47587.99999999993</v>
+        <v>37239</v>
       </c>
       <c r="E59">
-        <v>10348.99999999993</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>4944</v>
+        <v>673029</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1800,13 +1800,13 @@
         <v>27282</v>
       </c>
       <c r="D60">
-        <v>33260.00000000001</v>
+        <v>27282</v>
       </c>
       <c r="E60">
-        <v>5978.000000000007</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>4949</v>
+        <v>22506</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>3.637978807091713E-12</v>
       </c>
       <c r="F61">
-        <v>1484</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>24454</v>
       </c>
       <c r="D62">
-        <v>24454</v>
+        <v>24454.00000000001</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1.091393642127514E-11</v>
       </c>
       <c r="F62">
-        <v>1536</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1860,13 +1860,13 @@
         <v>32643</v>
       </c>
       <c r="D63">
-        <v>39877.00000000003</v>
+        <v>32643</v>
       </c>
       <c r="E63">
-        <v>7234.000000000029</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>4765</v>
+        <v>25449</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>2017</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1337</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1444</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1940,13 +1940,13 @@
         <v>31415</v>
       </c>
       <c r="D67">
-        <v>34717.99999999999</v>
+        <v>31415</v>
       </c>
       <c r="E67">
-        <v>3302.999999999985</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>4963</v>
+        <v>30557</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1960,13 +1960,13 @@
         <v>24848</v>
       </c>
       <c r="D68">
-        <v>24917</v>
+        <v>24848</v>
       </c>
       <c r="E68">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>4872</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1164</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1484</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2020,13 +2020,13 @@
         <v>32321</v>
       </c>
       <c r="D71">
-        <v>32753</v>
+        <v>32321</v>
       </c>
       <c r="E71">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>5043</v>
+        <v>16312</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>4099</v>
+        <v>3642</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Lib_2.xlsx
+++ b/outputs/Lib_2.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\2º Semestre\Simulação\SO_trabalho\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247ABB1-0DDD-44E9-B081-DDB68DAA30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lib_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -272,13 +291,16 @@
   </si>
   <si>
     <t>p71</t>
+  </si>
+  <si>
+    <t>Z-Z*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,11 +337,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -361,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,9 +423,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,6 +475,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,14 +668,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,13 +691,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -646,10 +717,14 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <f>(E2/C2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -666,10 +741,14 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">(E3/C3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -686,10 +765,14 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -706,10 +789,14 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -720,16 +807,20 @@
         <v>8838</v>
       </c>
       <c r="D6">
-        <v>8838.000000000002</v>
+        <v>8838.0000000000018</v>
       </c>
       <c r="E6">
-        <v>1.818989403545856E-12</v>
+        <v>1.8189894035458561E-12</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.0581459646366327E-14</v>
+      </c>
+      <c r="G6">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -740,16 +831,20 @@
         <v>7777</v>
       </c>
       <c r="D7">
-        <v>7777.000000000001</v>
+        <v>7777.0000000000009</v>
       </c>
       <c r="E7">
-        <v>9.094947017729282E-13</v>
+        <v>9.0949470177292824E-13</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.1694672775786656E-14</v>
+      </c>
+      <c r="G7">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -760,16 +855,20 @@
         <v>9488</v>
       </c>
       <c r="D8">
-        <v>9487.999999999998</v>
+        <v>9487.9999999999982</v>
       </c>
       <c r="E8">
-        <v>1.818989403545856E-12</v>
+        <v>1.8189894035458561E-12</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.9171473477506914E-14</v>
+      </c>
+      <c r="G8">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -786,10 +885,14 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -806,10 +909,14 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -820,16 +927,20 @@
         <v>7617</v>
       </c>
       <c r="D11">
-        <v>7616.999999999999</v>
+        <v>7616.9999999999991</v>
       </c>
       <c r="E11">
-        <v>9.094947017729282E-13</v>
+        <v>9.0949470177292824E-13</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.1940326923630409E-14</v>
+      </c>
+      <c r="G11">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -846,10 +957,14 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -866,10 +981,14 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -880,16 +999,20 @@
         <v>8252</v>
       </c>
       <c r="D14">
-        <v>8251.999999999998</v>
+        <v>8251.9999999999982</v>
       </c>
       <c r="E14">
-        <v>1.818989403545856E-12</v>
+        <v>1.8189894035458561E-12</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.2043012645974991E-14</v>
+      </c>
+      <c r="G14">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -906,10 +1029,14 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -926,10 +1053,14 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -943,13 +1074,17 @@
         <v>10408</v>
       </c>
       <c r="E17">
-        <v>1.818989403545856E-12</v>
+        <v>1.8189894035458561E-12</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.7476839004091622E-14</v>
+      </c>
+      <c r="G17">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -966,10 +1101,14 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -980,16 +1119,20 @@
         <v>7125</v>
       </c>
       <c r="D19">
-        <v>7124.999999999999</v>
+        <v>7124.9999999999991</v>
       </c>
       <c r="E19">
-        <v>9.094947017729282E-13</v>
+        <v>9.0949470177292824E-13</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.2764837919620044E-14</v>
+      </c>
+      <c r="G19">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1000,16 +1143,20 @@
         <v>8886</v>
       </c>
       <c r="D20">
-        <v>8885.999999999993</v>
+        <v>8885.9999999999927</v>
       </c>
       <c r="E20">
-        <v>7.275957614183426E-12</v>
+        <v>7.2759576141834259E-12</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>8.1881134528285228E-14</v>
+      </c>
+      <c r="G20">
         <v>488</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1023,13 +1170,17 @@
         <v>10486</v>
       </c>
       <c r="E21">
-        <v>1.818989403545856E-12</v>
+        <v>1.8189894035458561E-12</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.7346837722161512E-14</v>
+      </c>
+      <c r="G21">
         <v>782</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1046,10 +1197,14 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1066,10 +1221,14 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1086,10 +1245,14 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1106,10 +1269,14 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1126,10 +1293,14 @@
         <v>0</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>4596</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1146,10 +1317,14 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>1769</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1166,10 +1341,14 @@
         <v>0</v>
       </c>
       <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>13082</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1186,10 +1365,14 @@
         <v>0</v>
       </c>
       <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>8487</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1206,10 +1389,14 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>16619</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1223,13 +1410,17 @@
         <v>11331</v>
       </c>
       <c r="E31">
-        <v>1.818989403545856E-12</v>
+        <v>1.8189894035458561E-12</v>
       </c>
       <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.6053211574846493E-14</v>
+      </c>
+      <c r="G31">
         <v>33944</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1246,10 +1437,14 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>52446</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1266,10 +1461,14 @@
         <v>0</v>
       </c>
       <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>39277</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1286,10 +1485,14 @@
         <v>0</v>
       </c>
       <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>2727</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1306,10 +1509,14 @@
         <v>0</v>
       </c>
       <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>1447</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1326,10 +1533,14 @@
         <v>0</v>
       </c>
       <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>2205</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1346,10 +1557,14 @@
         <v>0</v>
       </c>
       <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>5706</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1366,10 +1581,14 @@
         <v>0</v>
       </c>
       <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>1070</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1386,10 +1605,14 @@
         <v>0</v>
       </c>
       <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>893</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1406,10 +1629,14 @@
         <v>0</v>
       </c>
       <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>1111</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1426,10 +1653,14 @@
         <v>0</v>
       </c>
       <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>1488</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1446,10 +1677,14 @@
         <v>0</v>
       </c>
       <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>1516</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1466,10 +1701,14 @@
         <v>0</v>
       </c>
       <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>2878</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1486,10 +1725,14 @@
         <v>0</v>
       </c>
       <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1506,10 +1749,14 @@
         <v>0</v>
       </c>
       <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1526,10 +1773,14 @@
         <v>0</v>
       </c>
       <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1540,16 +1791,20 @@
         <v>5651</v>
       </c>
       <c r="D47">
-        <v>5650.999999999999</v>
+        <v>5650.9999999999991</v>
       </c>
       <c r="E47">
-        <v>9.094947017729282E-13</v>
+        <v>9.0949470177292824E-13</v>
       </c>
       <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.6094402791947059E-14</v>
+      </c>
+      <c r="G47">
         <v>815</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1566,10 +1821,14 @@
         <v>0</v>
       </c>
       <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1586,10 +1845,14 @@
         <v>0</v>
       </c>
       <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1600,16 +1863,20 @@
         <v>5302</v>
       </c>
       <c r="D50">
-        <v>5302.000000000001</v>
+        <v>5302.0000000000009</v>
       </c>
       <c r="E50">
-        <v>9.094947017729282E-13</v>
+        <v>9.0949470177292824E-13</v>
       </c>
       <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1.7153804258259679E-14</v>
+      </c>
+      <c r="G50">
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1626,10 +1893,14 @@
         <v>0</v>
       </c>
       <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>3476</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1646,10 +1917,14 @@
         <v>0</v>
       </c>
       <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>4189</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -1660,16 +1935,20 @@
         <v>9178</v>
       </c>
       <c r="D53">
-        <v>9178.000000000002</v>
+        <v>9178.0000000000018</v>
       </c>
       <c r="E53">
-        <v>1.818989403545856E-12</v>
+        <v>1.8189894035458561E-12</v>
       </c>
       <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.9819017253713837E-14</v>
+      </c>
+      <c r="G53">
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -1686,10 +1965,14 @@
         <v>0</v>
       </c>
       <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -1706,10 +1989,14 @@
         <v>0</v>
       </c>
       <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -1720,16 +2007,20 @@
         <v>7654</v>
       </c>
       <c r="D56">
-        <v>7654.000000000001</v>
+        <v>7654.0000000000009</v>
       </c>
       <c r="E56">
-        <v>9.094947017729282E-13</v>
+        <v>9.0949470177292824E-13</v>
       </c>
       <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1.1882606503435174E-14</v>
+      </c>
+      <c r="G56">
         <v>816</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -1746,10 +2037,14 @@
         <v>0</v>
       </c>
       <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>12071</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -1766,10 +2061,14 @@
         <v>0</v>
       </c>
       <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>72795</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -1786,10 +2085,14 @@
         <v>0</v>
       </c>
       <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>673029</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -1806,10 +2109,14 @@
         <v>0</v>
       </c>
       <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>22506</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -1826,10 +2133,14 @@
         <v>3.637978807091713E-12</v>
       </c>
       <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1.7716854032783252E-14</v>
+      </c>
+      <c r="G61">
         <v>1341</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -1840,16 +2151,20 @@
         <v>24454</v>
       </c>
       <c r="D62">
-        <v>24454.00000000001</v>
+        <v>24454.000000000011</v>
       </c>
       <c r="E62">
         <v>1.091393642127514E-11</v>
       </c>
       <c r="F62">
+        <f t="shared" si="0"/>
+        <v>4.4630475264885669E-14</v>
+      </c>
+      <c r="G62">
         <v>1385</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -1866,10 +2181,14 @@
         <v>0</v>
       </c>
       <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
         <v>25449</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -1886,10 +2205,14 @@
         <v>0</v>
       </c>
       <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>1932</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -1906,10 +2229,14 @@
         <v>0</v>
       </c>
       <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>1458</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -1926,10 +2253,14 @@
         <v>0</v>
       </c>
       <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>1679</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -1946,10 +2277,14 @@
         <v>0</v>
       </c>
       <c r="F67">
+        <f t="shared" ref="F67:F72" si="1">(E67/C67)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>30557</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -1966,10 +2301,14 @@
         <v>0</v>
       </c>
       <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>4923</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -1986,10 +2325,14 @@
         <v>0</v>
       </c>
       <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>1058</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -2006,10 +2349,14 @@
         <v>0</v>
       </c>
       <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>1460</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -2026,10 +2373,14 @@
         <v>0</v>
       </c>
       <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
         <v>16312</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -2046,6 +2397,10 @@
         <v>0</v>
       </c>
       <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
         <v>3642</v>
       </c>
     </row>

--- a/outputs/Lib_2.xlsx
+++ b/outputs/Lib_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\2º Semestre\Simulação\SO_trabalho\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247ABB1-0DDD-44E9-B081-DDB68DAA30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B486A38A-3053-4F12-BDBD-47A1B3FE8A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,8 +329,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,10 +673,13 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -693,7 +697,7 @@
       <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -716,7 +720,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>(E2/C2)*100</f>
         <v>0</v>
       </c>
@@ -740,7 +744,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">(E3/C3)*100</f>
         <v>0</v>
       </c>
@@ -764,7 +768,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -788,7 +792,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -812,7 +816,7 @@
       <c r="E6">
         <v>1.8189894035458561E-12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>2.0581459646366327E-14</v>
       </c>
@@ -836,7 +840,7 @@
       <c r="E7">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>1.1694672775786656E-14</v>
       </c>
@@ -860,7 +864,7 @@
       <c r="E8">
         <v>1.8189894035458561E-12</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>1.9171473477506914E-14</v>
       </c>
@@ -884,7 +888,7 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -908,7 +912,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -932,7 +936,7 @@
       <c r="E11">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>1.1940326923630409E-14</v>
       </c>
@@ -956,7 +960,7 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -980,7 +984,7 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1004,7 +1008,7 @@
       <c r="E14">
         <v>1.8189894035458561E-12</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>2.2043012645974991E-14</v>
       </c>
@@ -1028,7 +1032,7 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1052,7 +1056,7 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1076,7 +1080,7 @@
       <c r="E17">
         <v>1.8189894035458561E-12</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>1.7476839004091622E-14</v>
       </c>
@@ -1100,7 +1104,7 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1124,7 +1128,7 @@
       <c r="E19">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>1.2764837919620044E-14</v>
       </c>
@@ -1148,7 +1152,7 @@
       <c r="E20">
         <v>7.2759576141834259E-12</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>8.1881134528285228E-14</v>
       </c>
@@ -1172,7 +1176,7 @@
       <c r="E21">
         <v>1.8189894035458561E-12</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>1.7346837722161512E-14</v>
       </c>
@@ -1196,7 +1200,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1220,7 +1224,7 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1244,7 +1248,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1268,7 +1272,7 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1292,7 +1296,7 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1316,7 +1320,7 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1340,7 +1344,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1364,7 +1368,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1388,7 +1392,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1412,7 +1416,7 @@
       <c r="E31">
         <v>1.8189894035458561E-12</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>1.6053211574846493E-14</v>
       </c>
@@ -1436,7 +1440,7 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1460,7 +1464,7 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1484,7 +1488,7 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1508,7 +1512,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1532,7 +1536,7 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1556,7 +1560,7 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1580,7 +1584,7 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1604,7 +1608,7 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1628,7 +1632,7 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1652,7 +1656,7 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1676,7 +1680,7 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1700,7 +1704,7 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1724,7 +1728,7 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1748,7 +1752,7 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1772,7 +1776,7 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1796,7 +1800,7 @@
       <c r="E47">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <f t="shared" si="0"/>
         <v>1.6094402791947059E-14</v>
       </c>
@@ -1820,7 +1824,7 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1844,7 +1848,7 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1868,7 +1872,7 @@
       <c r="E50">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <f t="shared" si="0"/>
         <v>1.7153804258259679E-14</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1916,7 +1920,7 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1940,7 +1944,7 @@
       <c r="E53">
         <v>1.8189894035458561E-12</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <f t="shared" si="0"/>
         <v>1.9819017253713837E-14</v>
       </c>
@@ -1964,7 +1968,7 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1988,7 +1992,7 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2012,7 +2016,7 @@
       <c r="E56">
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <f t="shared" si="0"/>
         <v>1.1882606503435174E-14</v>
       </c>
@@ -2036,7 +2040,7 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2060,7 +2064,7 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2084,7 +2088,7 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2108,7 +2112,7 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2132,7 +2136,7 @@
       <c r="E61">
         <v>3.637978807091713E-12</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <f t="shared" si="0"/>
         <v>1.7716854032783252E-14</v>
       </c>
@@ -2156,7 +2160,7 @@
       <c r="E62">
         <v>1.091393642127514E-11</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <f t="shared" si="0"/>
         <v>4.4630475264885669E-14</v>
       </c>
@@ -2180,7 +2184,7 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2204,7 +2208,7 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2228,7 +2232,7 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2252,7 +2256,7 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2276,7 +2280,7 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <f t="shared" ref="F67:F72" si="1">(E67/C67)*100</f>
         <v>0</v>
       </c>
@@ -2300,7 +2304,7 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2324,7 +2328,7 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2348,7 +2352,7 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2372,7 +2376,7 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2396,7 +2400,7 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
